--- a/results/illuminator targeted.xlsx.xlsx
+++ b/results/illuminator targeted.xlsx.xlsx
@@ -801,40 +801,40 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -1410,40 +1410,40 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -13453,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -20089,7 +20089,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="BA98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB98">
         <v>0</v>
@@ -28478,7 +28478,7 @@
         <v>0</v>
       </c>
       <c r="AF138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG138">
         <v>0</v>
@@ -28681,7 +28681,7 @@
         <v>0</v>
       </c>
       <c r="AF139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG139">
         <v>0</v>
@@ -28851,40 +28851,40 @@
         <v>0</v>
       </c>
       <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+      <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AE140">
+        <v>0</v>
+      </c>
+      <c r="AF140">
         <v>1</v>
-      </c>
-      <c r="V140">
-        <v>0</v>
-      </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
-      </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-      <c r="AA140">
-        <v>0</v>
-      </c>
-      <c r="AB140">
-        <v>0</v>
-      </c>
-      <c r="AC140">
-        <v>0</v>
-      </c>
-      <c r="AD140">
-        <v>0</v>
-      </c>
-      <c r="AE140">
-        <v>0</v>
-      </c>
-      <c r="AF140">
-        <v>0</v>
       </c>
       <c r="AG140">
         <v>0</v>
@@ -29087,7 +29087,7 @@
         <v>0</v>
       </c>
       <c r="AF141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG141">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="AF142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG142">
         <v>0</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="AF143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG143">
         <v>0</v>
@@ -29866,7 +29866,7 @@
         <v>0</v>
       </c>
       <c r="U145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V145">
         <v>0</v>
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="AF147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG147">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="AF148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG148">
         <v>0</v>
@@ -34162,7 +34162,7 @@
         <v>0</v>
       </c>
       <c r="AF166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG166">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>0</v>
       </c>
       <c r="AF167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG167">
         <v>0</v>
@@ -34568,7 +34568,7 @@
         <v>0</v>
       </c>
       <c r="AF168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG168">
         <v>0</v>
@@ -34771,7 +34771,7 @@
         <v>0</v>
       </c>
       <c r="AF169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG169">
         <v>0</v>
@@ -34974,7 +34974,7 @@
         <v>0</v>
       </c>
       <c r="AF170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG170">
         <v>0</v>
@@ -35177,7 +35177,7 @@
         <v>0</v>
       </c>
       <c r="AF171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG171">
         <v>0</v>
@@ -35380,7 +35380,7 @@
         <v>0</v>
       </c>
       <c r="AF172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG172">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="AF173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG173">
         <v>0</v>
@@ -35786,7 +35786,7 @@
         <v>0</v>
       </c>
       <c r="AF174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG174">
         <v>0</v>
@@ -35989,7 +35989,7 @@
         <v>0</v>
       </c>
       <c r="AF175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG175">
         <v>0</v>
@@ -36192,7 +36192,7 @@
         <v>0</v>
       </c>
       <c r="AF176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG176">
         <v>0</v>
@@ -38897,7 +38897,7 @@
         <v>0</v>
       </c>
       <c r="BB189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC189">
         <v>0</v>
@@ -39473,7 +39473,7 @@
         <v>0</v>
       </c>
       <c r="AQ192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>0</v>
@@ -47733,7 +47733,7 @@
         <v>0</v>
       </c>
       <c r="V233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -48106,7 +48106,7 @@
         <v>0</v>
       </c>
       <c r="K235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -48309,7 +48309,7 @@
         <v>0</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -51420,7 +51420,7 @@
         <v>0</v>
       </c>
       <c r="AG251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH251">
         <v>0</v>
@@ -51623,7 +51623,7 @@
         <v>0</v>
       </c>
       <c r="AG252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH252">
         <v>0</v>
@@ -51826,7 +51826,7 @@
         <v>0</v>
       </c>
       <c r="AG253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH253">
         <v>0</v>
@@ -52029,7 +52029,7 @@
         <v>0</v>
       </c>
       <c r="AG254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH254">
         <v>0</v>
@@ -52232,7 +52232,7 @@
         <v>0</v>
       </c>
       <c r="AG255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH255">
         <v>0</v>
@@ -52435,7 +52435,7 @@
         <v>0</v>
       </c>
       <c r="AG256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH256">
         <v>0</v>
@@ -52638,7 +52638,7 @@
         <v>0</v>
       </c>
       <c r="AG257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH257">
         <v>0</v>
@@ -52841,7 +52841,7 @@
         <v>0</v>
       </c>
       <c r="AG258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH258">
         <v>0</v>
@@ -53044,7 +53044,7 @@
         <v>0</v>
       </c>
       <c r="AG259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH259">
         <v>0</v>
@@ -53450,7 +53450,7 @@
         <v>0</v>
       </c>
       <c r="AG261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH261">
         <v>0</v>
@@ -56698,7 +56698,7 @@
         <v>0</v>
       </c>
       <c r="AG277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH277">
         <v>0</v>
@@ -57340,7 +57340,7 @@
         <v>0</v>
       </c>
       <c r="AR280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS280">
         <v>0</v>
@@ -57543,7 +57543,7 @@
         <v>0</v>
       </c>
       <c r="AR281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS281">
         <v>0</v>
@@ -57746,7 +57746,7 @@
         <v>0</v>
       </c>
       <c r="AR282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS282">
         <v>0</v>
@@ -57949,7 +57949,7 @@
         <v>0</v>
       </c>
       <c r="AR283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS283">
         <v>0</v>
@@ -58152,7 +58152,7 @@
         <v>0</v>
       </c>
       <c r="AR284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS284">
         <v>0</v>
@@ -58525,7 +58525,7 @@
         <v>0</v>
       </c>
       <c r="AG286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH286">
         <v>0</v>
@@ -58728,7 +58728,7 @@
         <v>0</v>
       </c>
       <c r="AG287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH287">
         <v>0</v>
@@ -58931,7 +58931,7 @@
         <v>0</v>
       </c>
       <c r="AG288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH288">
         <v>0</v>
@@ -59134,7 +59134,7 @@
         <v>0</v>
       </c>
       <c r="AG289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH289">
         <v>0</v>
@@ -59337,7 +59337,7 @@
         <v>0</v>
       </c>
       <c r="AG290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH290">
         <v>0</v>
